--- a/server/review_cycle_data_export.xlsx
+++ b/server/review_cycle_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>userFeedback</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -104,8 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -122,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,7 +179,9 @@
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+      <c r="F3" t="n" s="0">
+        <v>9.0</v>
+      </c>
       <c r="G3" t="n" s="1">
         <v>45056.229166666664</v>
       </c>
@@ -202,7 +206,9 @@
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
+      <c r="F4" t="n" s="0">
+        <v>9.0</v>
+      </c>
       <c r="G4" t="n" s="3">
         <v>45323.229166666664</v>
       </c>
@@ -227,7 +233,9 @@
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
+      <c r="F5" t="n" s="0">
+        <v>9.0</v>
+      </c>
       <c r="G5" t="n" s="5">
         <v>45397.229166666664</v>
       </c>
@@ -238,7 +246,7 @@
       </c>
       <c r="K5" s="0"/>
       <c r="L5" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M5" t="n" s="6">
         <v>45394.229166666664</v>
@@ -252,7 +260,9 @@
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
+      <c r="F6" t="n" s="0">
+        <v>9.0</v>
+      </c>
       <c r="G6" t="n" s="7">
         <v>45397.229166666664</v>
       </c>
@@ -263,7 +273,7 @@
       </c>
       <c r="K6" s="0"/>
       <c r="L6" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M6" t="n" s="8">
         <v>45394.229166666664</v>
@@ -277,7 +287,9 @@
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="F7" t="n" s="0">
+        <v>9.0</v>
+      </c>
       <c r="G7" t="n" s="9">
         <v>45309.229166666664</v>
       </c>
@@ -294,6 +306,52 @@
         <v>45308.229166666664</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="G8" t="n" s="11">
+        <v>45309.229166666664</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="M8" t="n" s="12">
+        <v>45308.229166666664</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="M9" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/server/review_cycle_data_export.xlsx
+++ b/server/review_cycle_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>userFeedback</t>
   </si>
@@ -53,16 +53,17 @@
     <t>startDate</t>
   </si>
   <si>
-    <t>Q3</t>
+    <t>q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot
+</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q1</t>
   </si>
   <si>
     <t/>
@@ -104,16 +105,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -124,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,178 +172,68 @@
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
-      <c r="F3" t="n" s="0">
-        <v>9.0</v>
-      </c>
+      <c r="F3" s="0"/>
       <c r="G3" t="n" s="1">
-        <v>45056.229166666664</v>
+        <v>45309.0</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="K3" s="0"/>
+        <v>3.0</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>14</v>
+      </c>
       <c r="L3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M3" t="n" s="2">
-        <v>45026.229166666664</v>
+        <v>45303.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
       <c r="C4" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
-      <c r="F4" t="n" s="0">
-        <v>9.0</v>
-      </c>
+      <c r="F4" s="0"/>
       <c r="G4" t="n" s="3">
-        <v>45323.229166666664</v>
+        <v>45311.229166666664</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" t="n" s="0">
-        <v>5.0</v>
+        <v>4567.0</v>
       </c>
       <c r="K4" s="0"/>
       <c r="L4" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n" s="4">
-        <v>45283.229166666664</v>
+        <v>45304.229166666664</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0"/>
       <c r="B5" s="0"/>
       <c r="C5" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
-      <c r="F5" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="G5" t="n" s="5">
-        <v>45397.229166666664</v>
-      </c>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
-      <c r="J5" t="n" s="0">
-        <v>7.0</v>
-      </c>
+      <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="M5" t="n" s="6">
-        <v>45394.229166666664</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0"/>
-      <c r="B6" s="0"/>
-      <c r="C6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="G6" t="n" s="7">
-        <v>45397.229166666664</v>
-      </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="K6" s="0"/>
-      <c r="L6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="M6" t="n" s="8">
-        <v>45394.229166666664</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="G7" t="n" s="9">
-        <v>45309.229166666664</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="K7" s="0"/>
-      <c r="L7" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="M7" t="n" s="10">
-        <v>45308.229166666664</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="G8" t="n" s="11">
-        <v>45309.229166666664</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="K8" s="0"/>
-      <c r="L8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="M8" t="n" s="12">
-        <v>45308.229166666664</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="M9" s="0"/>
+      <c r="M5" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/server/review_cycle_data_export.xlsx
+++ b/server/review_cycle_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>userFeedback</t>
   </si>
@@ -53,11 +53,16 @@
     <t>startDate</t>
   </si>
   <si>
+    <t>Senior manager feedback</t>
+  </si>
+  <si>
     <t>q1</t>
   </si>
   <si>
-    <t xml:space="preserve">Hot
-</t>
+    <t>Super senior manager feedback</t>
+  </si>
+  <si>
+    <t>direct manager feedback</t>
   </si>
   <si>
     <t>Reviewed</t>
@@ -166,26 +171,36 @@
     </row>
     <row r="3">
       <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>3.0</v>
+      </c>
       <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
+      <c r="F3" t="n" s="0">
+        <v>3.0</v>
+      </c>
       <c r="G3" t="n" s="1">
-        <v>45309.0</v>
-      </c>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
+        <v>45321.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="J3" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M3" t="n" s="2">
         <v>45303.0</v>
@@ -195,7 +210,7 @@
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
@@ -210,7 +225,7 @@
       </c>
       <c r="K4" s="0"/>
       <c r="L4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M4" t="n" s="4">
         <v>45304.229166666664</v>
@@ -220,7 +235,7 @@
       <c r="A5" s="0"/>
       <c r="B5" s="0"/>
       <c r="C5" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
@@ -231,7 +246,7 @@
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
       <c r="L5" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M5" s="0"/>
     </row>

--- a/server/review_cycle_data_export.xlsx
+++ b/server/review_cycle_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>userFeedback</t>
   </si>
@@ -51,27 +51,6 @@
   </si>
   <si>
     <t>startDate</t>
-  </si>
-  <si>
-    <t>Senior manager feedback</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>Super senior manager feedback</t>
-  </si>
-  <si>
-    <t>direct manager feedback</t>
-  </si>
-  <si>
-    <t>Reviewed</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -110,8 +89,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -122,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,37 +174,21 @@
     </row>
     <row r="3">
       <c r="A3" s="0"/>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>3.0</v>
-      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="0"/>
-      <c r="F3" t="n" s="0">
-        <v>3.0</v>
-      </c>
+      <c r="F3" s="0"/>
       <c r="G3" t="n" s="1">
         <v>45321.0</v>
       </c>
-      <c r="H3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>15</v>
-      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
       <c r="J3" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>17</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
       <c r="M3" t="n" s="2">
         <v>45303.0</v>
       </c>
@@ -209,46 +196,275 @@
     <row r="4">
       <c r="A4" s="0"/>
       <c r="B4" s="0"/>
-      <c r="C4" t="s" s="0">
-        <v>14</v>
-      </c>
+      <c r="C4" s="0"/>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" t="n" s="3">
-        <v>45311.229166666664</v>
+        <v>45321.0</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" t="n" s="0">
-        <v>4567.0</v>
+        <v>3.0</v>
       </c>
       <c r="K4" s="0"/>
-      <c r="L4" t="s" s="0">
-        <v>18</v>
-      </c>
+      <c r="L4" s="0"/>
       <c r="M4" t="n" s="4">
-        <v>45304.229166666664</v>
+        <v>45303.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0"/>
       <c r="B5" s="0"/>
-      <c r="C5" t="s" s="0">
-        <v>19</v>
-      </c>
+      <c r="C5" s="0"/>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
+      <c r="G5" t="n" s="5">
+        <v>45321.0</v>
+      </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
+      <c r="J5" t="n" s="0">
+        <v>4.0</v>
+      </c>
       <c r="K5" s="0"/>
-      <c r="L5" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="M5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" t="n" s="6">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" t="n" s="7">
+        <v>45321.0</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" t="n" s="8">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" t="n" s="9">
+        <v>45321.0</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" t="n" s="10">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" t="n" s="11">
+        <v>45321.0</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" t="n" s="12">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0"/>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" t="n" s="13">
+        <v>45321.0</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" t="n" s="14">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" t="n" s="15">
+        <v>45321.0</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" t="n" s="16">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" t="n" s="17">
+        <v>45321.0</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" t="n" s="18">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" t="n" s="19">
+        <v>45321.0</v>
+      </c>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" t="n" s="20">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" t="n" s="21">
+        <v>45321.0</v>
+      </c>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" t="n" s="22">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" t="n" s="23">
+        <v>45321.0</v>
+      </c>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" t="n" s="24">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" t="n" s="25">
+        <v>45321.0</v>
+      </c>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" t="n" s="26">
+        <v>45303.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" t="n" s="27">
+        <v>45321.0</v>
+      </c>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" t="n" s="28">
+        <v>45303.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
